--- a/horarios_optimizados-880-push_gap_0.80.xlsx
+++ b/horarios_optimizados-880-push_gap_0.80.xlsx
@@ -630,19 +630,67 @@
       <c r="H5" s="4" t="inlineStr"/>
       <c r="I5" s="4" t="inlineStr"/>
       <c r="J5" s="4" t="inlineStr"/>
-      <c r="K5" s="4" t="inlineStr"/>
-      <c r="L5" s="4" t="inlineStr"/>
-      <c r="M5" s="4" t="inlineStr"/>
-      <c r="N5" s="4" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O5" s="4" t="inlineStr"/>
-      <c r="P5" s="4" t="inlineStr"/>
-      <c r="Q5" s="4" t="inlineStr"/>
-      <c r="R5" s="4" t="inlineStr"/>
-      <c r="S5" s="4" t="inlineStr"/>
-      <c r="T5" s="4" t="inlineStr"/>
-      <c r="U5" s="4" t="inlineStr"/>
-      <c r="V5" s="4" t="inlineStr"/>
-      <c r="W5" s="4" t="inlineStr"/>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="X5" s="4" t="inlineStr"/>
       <c r="Y5" s="4" t="inlineStr"/>
     </row>
@@ -762,82 +810,22 @@
       <c r="F7" s="4" t="inlineStr"/>
       <c r="G7" s="4" t="inlineStr"/>
       <c r="H7" s="4" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I7" s="4" t="inlineStr"/>
+      <c r="J7" s="4" t="inlineStr"/>
+      <c r="K7" s="4" t="inlineStr"/>
+      <c r="L7" s="4" t="inlineStr"/>
+      <c r="M7" s="4" t="inlineStr"/>
+      <c r="N7" s="4" t="inlineStr"/>
       <c r="O7" s="4" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P7" s="4" t="inlineStr"/>
+      <c r="Q7" s="4" t="inlineStr"/>
+      <c r="R7" s="4" t="inlineStr"/>
+      <c r="S7" s="4" t="inlineStr"/>
+      <c r="T7" s="4" t="inlineStr"/>
+      <c r="U7" s="4" t="inlineStr"/>
+      <c r="V7" s="4" t="inlineStr"/>
+      <c r="W7" s="4" t="inlineStr"/>
+      <c r="X7" s="4" t="inlineStr"/>
       <c r="Y7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
@@ -847,41 +835,13 @@
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr"/>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C8" s="4" t="inlineStr"/>
+      <c r="D8" s="4" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr"/>
+      <c r="G8" s="4" t="inlineStr"/>
+      <c r="H8" s="4" t="inlineStr"/>
+      <c r="I8" s="4" t="inlineStr"/>
       <c r="J8" s="4" t="inlineStr"/>
       <c r="K8" s="5" t="inlineStr">
         <is>
@@ -908,15 +868,47 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P8" s="4" t="inlineStr"/>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q8" s="4" t="inlineStr"/>
-      <c r="R8" s="4" t="inlineStr"/>
-      <c r="S8" s="4" t="inlineStr"/>
-      <c r="T8" s="4" t="inlineStr"/>
-      <c r="U8" s="4" t="inlineStr"/>
-      <c r="V8" s="4" t="inlineStr"/>
-      <c r="W8" s="4" t="inlineStr"/>
-      <c r="X8" s="4" t="inlineStr"/>
+      <c r="R8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
@@ -934,8 +926,16 @@
       <c r="H9" s="4" t="inlineStr"/>
       <c r="I9" s="4" t="inlineStr"/>
       <c r="J9" s="4" t="inlineStr"/>
-      <c r="K9" s="4" t="inlineStr"/>
-      <c r="L9" s="4" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -946,17 +946,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O9" s="4" t="inlineStr"/>
       <c r="P9" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="Q9" s="4" t="inlineStr"/>
+      <c r="Q9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1036,17 +1036,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N10" s="4" t="inlineStr"/>
       <c r="O10" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="P10" s="4" t="inlineStr"/>
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1126,17 +1126,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M11" s="4" t="inlineStr"/>
       <c r="N11" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="O11" s="4" t="inlineStr"/>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1366,7 +1366,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="X15" s="4" t="inlineStr"/>
+      <c r="X15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y15" s="4" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1407,40 +1411,32 @@
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr"/>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I17" s="4" t="inlineStr"/>
-      <c r="J17" s="4" t="inlineStr"/>
-      <c r="K17" s="4" t="inlineStr"/>
-      <c r="L17" s="4" t="inlineStr"/>
+      <c r="C17" s="4" t="inlineStr"/>
+      <c r="D17" s="4" t="inlineStr"/>
+      <c r="E17" s="4" t="inlineStr"/>
+      <c r="F17" s="4" t="inlineStr"/>
+      <c r="G17" s="4" t="inlineStr"/>
+      <c r="H17" s="4" t="inlineStr"/>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1456,11 +1452,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P17" s="4" t="inlineStr"/>
       <c r="Q17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1510,28 +1502,48 @@
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr"/>
-      <c r="C18" s="4" t="inlineStr"/>
-      <c r="D18" s="4" t="inlineStr"/>
-      <c r="E18" s="4" t="inlineStr"/>
-      <c r="F18" s="4" t="inlineStr"/>
-      <c r="G18" s="4" t="inlineStr"/>
-      <c r="H18" s="4" t="inlineStr"/>
-      <c r="I18" s="4" t="inlineStr"/>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J18" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="K18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K18" s="4" t="inlineStr"/>
+      <c r="L18" s="4" t="inlineStr"/>
       <c r="M18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1552,42 +1564,14 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q18" s="4" t="inlineStr"/>
+      <c r="R18" s="4" t="inlineStr"/>
+      <c r="S18" s="4" t="inlineStr"/>
       <c r="T18" s="4" t="inlineStr"/>
-      <c r="U18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U18" s="4" t="inlineStr"/>
+      <c r="V18" s="4" t="inlineStr"/>
+      <c r="W18" s="4" t="inlineStr"/>
+      <c r="X18" s="4" t="inlineStr"/>
       <c r="Y18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1664,9 +1648,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R19" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
+      <c r="R19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
         </is>
       </c>
       <c r="S19" s="6" t="inlineStr">
@@ -1783,36 +1767,60 @@
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr"/>
-      <c r="C21" s="4" t="inlineStr"/>
-      <c r="D21" s="4" t="inlineStr"/>
-      <c r="E21" s="4" t="inlineStr"/>
-      <c r="F21" s="4" t="inlineStr"/>
-      <c r="G21" s="4" t="inlineStr"/>
-      <c r="H21" s="4" t="inlineStr"/>
-      <c r="I21" s="4" t="inlineStr"/>
-      <c r="J21" s="4" t="inlineStr"/>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K21" s="4" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L21" s="4" t="inlineStr"/>
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr"/>
       <c r="O21" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="P21" s="4" t="inlineStr"/>
+      <c r="P21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1838,21 +1846,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="V21" s="4" t="inlineStr"/>
+      <c r="W21" s="4" t="inlineStr"/>
+      <c r="X21" s="4" t="inlineStr"/>
       <c r="Y21" s="4" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1956,72 +1952,20 @@
       <c r="H25" s="4" t="inlineStr"/>
       <c r="I25" s="4" t="inlineStr"/>
       <c r="J25" s="4" t="inlineStr"/>
-      <c r="K25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K25" s="4" t="inlineStr"/>
+      <c r="L25" s="4" t="inlineStr"/>
+      <c r="M25" s="4" t="inlineStr"/>
+      <c r="N25" s="4" t="inlineStr"/>
+      <c r="O25" s="4" t="inlineStr"/>
       <c r="P25" s="4" t="inlineStr"/>
-      <c r="Q25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q25" s="4" t="inlineStr"/>
+      <c r="R25" s="4" t="inlineStr"/>
+      <c r="S25" s="4" t="inlineStr"/>
+      <c r="T25" s="4" t="inlineStr"/>
+      <c r="U25" s="4" t="inlineStr"/>
+      <c r="V25" s="4" t="inlineStr"/>
+      <c r="W25" s="4" t="inlineStr"/>
+      <c r="X25" s="4" t="inlineStr"/>
       <c r="Y25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2138,28 +2082,100 @@
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr"/>
-      <c r="C27" s="4" t="inlineStr"/>
-      <c r="D27" s="4" t="inlineStr"/>
-      <c r="E27" s="4" t="inlineStr"/>
-      <c r="F27" s="4" t="inlineStr"/>
-      <c r="G27" s="4" t="inlineStr"/>
-      <c r="H27" s="4" t="inlineStr"/>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I27" s="4" t="inlineStr"/>
       <c r="J27" s="4" t="inlineStr"/>
       <c r="K27" s="4" t="inlineStr"/>
       <c r="L27" s="4" t="inlineStr"/>
-      <c r="M27" s="4" t="inlineStr"/>
-      <c r="N27" s="4" t="inlineStr"/>
-      <c r="O27" s="4" t="inlineStr"/>
-      <c r="P27" s="4" t="inlineStr"/>
-      <c r="Q27" s="4" t="inlineStr"/>
-      <c r="R27" s="4" t="inlineStr"/>
-      <c r="S27" s="4" t="inlineStr"/>
-      <c r="T27" s="4" t="inlineStr"/>
-      <c r="U27" s="4" t="inlineStr"/>
-      <c r="V27" s="4" t="inlineStr"/>
-      <c r="W27" s="4" t="inlineStr"/>
-      <c r="X27" s="4" t="inlineStr"/>
+      <c r="M27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y27" s="4" t="inlineStr"/>
     </row>
     <row r="28">
@@ -2177,7 +2193,11 @@
       <c r="H28" s="4" t="inlineStr"/>
       <c r="I28" s="4" t="inlineStr"/>
       <c r="J28" s="4" t="inlineStr"/>
-      <c r="K28" s="4" t="inlineStr"/>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2252,7 +2272,11 @@
       <c r="D29" s="4" t="inlineStr"/>
       <c r="E29" s="4" t="inlineStr"/>
       <c r="F29" s="4" t="inlineStr"/>
-      <c r="G29" s="4" t="inlineStr"/>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2268,27 +2292,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O29" s="4" t="inlineStr"/>
+      <c r="K29" s="4" t="inlineStr"/>
+      <c r="L29" s="4" t="inlineStr"/>
+      <c r="M29" s="4" t="inlineStr"/>
+      <c r="N29" s="4" t="inlineStr"/>
+      <c r="O29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2411,9 +2423,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
+      <c r="S30" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="T30" s="6" t="inlineStr">
@@ -2442,50 +2454,26 @@
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr"/>
-      <c r="C31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C31" s="4" t="inlineStr"/>
+      <c r="D31" s="4" t="inlineStr"/>
+      <c r="E31" s="4" t="inlineStr"/>
+      <c r="F31" s="4" t="inlineStr"/>
+      <c r="G31" s="4" t="inlineStr"/>
+      <c r="H31" s="4" t="inlineStr"/>
+      <c r="I31" s="4" t="inlineStr"/>
+      <c r="J31" s="4" t="inlineStr"/>
       <c r="K31" s="4" t="inlineStr"/>
       <c r="L31" s="4" t="inlineStr"/>
-      <c r="M31" s="4" t="inlineStr"/>
-      <c r="N31" s="4" t="inlineStr"/>
+      <c r="M31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2521,9 +2509,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V31" s="4" t="inlineStr"/>
-      <c r="W31" s="4" t="inlineStr"/>
-      <c r="X31" s="4" t="inlineStr"/>
+      <c r="V31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y31" s="4" t="inlineStr"/>
     </row>
   </sheetData>
@@ -2627,17 +2627,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -2701,29 +2713,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2744,26 +2744,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I5" t="n">
         <v>0.5</v>
@@ -2787,17 +2787,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -2806,7 +2806,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" t="n">
         <v>0.5</v>
@@ -2835,12 +2835,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -2931,11 +2931,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -2990,17 +2990,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3009,10 +3009,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
@@ -3033,29 +3033,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -3162,29 +3162,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -3205,29 +3205,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3291,17 +3279,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3341,7 +3341,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I19" t="n">
         <v>0.5</v>
@@ -3365,29 +3365,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>15:30</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>20:30</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -3451,30 +3451,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
